--- a/file/excel/out.xlsx
+++ b/file/excel/out.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -32,6 +32,10 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,16 +53,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="00FF9900"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00FF9900"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,7 +493,7 @@
           <t>english</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>nihao</t>
         </is>
